--- a/data/Containers.xlsx
+++ b/data/Containers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Dashapp_Pallete_Space_Optimizer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Dash_App_Deploy_tes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EEBA51-E32D-4A4A-9259-DA4C2ADB189D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F3F1AA-B48A-4A80-B0E0-295C172EB587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6109B33C-8655-4019-B2E0-01E8ADECA345}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Palette</t>
-  </si>
-  <si>
     <t>LD3</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Cms</t>
+  </si>
+  <si>
+    <t>Pallet</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,13 +531,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -572,16 +572,16 @@
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>4500</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2">
         <v>934913.8</v>
@@ -616,16 +616,16 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>4500</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="2">
         <v>934913.8</v>
@@ -660,16 +660,16 @@
         <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>4500</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="2">
         <v>934913.8</v>
@@ -704,16 +704,16 @@
         <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>4500</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="2">
         <v>934913.8</v>
@@ -748,16 +748,16 @@
         <v>14</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>4500</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="2">
         <v>934913.8</v>
@@ -792,16 +792,16 @@
         <v>14</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2">
         <v>4500</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="2">
         <v>934913.8</v>
@@ -836,16 +836,16 @@
         <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="2">
         <v>4500</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="2">
         <v>934913.8</v>
@@ -880,16 +880,16 @@
         <v>14</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2">
         <v>4500</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="2">
         <v>934913.8</v>
@@ -900,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>60.2</v>
@@ -921,19 +921,19 @@
         <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2">
         <v>1200</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="2">
         <v>302267.8</v>
@@ -944,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>60.2</v>
@@ -965,19 +965,19 @@
         <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" s="2">
         <v>1200</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="2">
         <v>302267.8</v>
